--- a/Exercicio 03/Base.xlsx
+++ b/Exercicio 03/Base.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte Safepay\Documents\007- Testes de Macro e VBA\Aulas Excel\Mod 10 - Exercicio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\Desafio-Excel-01\Exercicio 03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E82E52-24FB-4268-9136-505E77CA812D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C78400-7B2D-483F-B5BC-D60248F280B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
+    <workbookView xWindow="-28920" yWindow="-1290" windowWidth="29040" windowHeight="15720" tabRatio="0" firstSheet="3" activeTab="3" xr2:uid="{28DD5B76-0634-4F87-BE60-8BFA7EF2E23B}"/>
   </bookViews>
   <sheets>
-    <sheet name="A̳ssets" sheetId="1" r:id="rId1"/>
-    <sheet name="B̳ases" sheetId="2" r:id="rId2"/>
-    <sheet name="C̳álculos" sheetId="3" r:id="rId3"/>
+    <sheet name="A̳ssets" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="B̳ases" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="C̳álculos" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="D̳ashboard" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -1237,16 +1237,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
-  <dxfs count="136">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1282,351 +1273,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <sz val="12"/>
-        <color theme="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="9"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF22C55E"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1674,11 +1320,44 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <sz val="12"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF22C55E"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SlicerStyleLight6 2" pivot="0" table="0" count="10" xr9:uid="{2094B030-6642-43D1-AF22-74DE96DB34BE}">
-      <tableStyleElement type="wholeTable" dxfId="118"/>
-      <tableStyleElement type="headerRow" dxfId="117"/>
+      <tableStyleElement type="wholeTable" dxfId="28"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1969,7 +1648,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[805d54f9-6d53-4246-bed7-4aa2da615923.xlsx]C̳álculos!tbl_annual_total</c:name>
+    <c:name>[Base.xlsx]C̳álculos!tbl_annual_total</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -2558,7 +2237,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[805d54f9-6d53-4246-bed7-4aa2da615923.xlsx]C̳álculos!Tabela dinâmica2</c:name>
+    <c:name>[Base.xlsx]C̳álculos!Tabela dinâmica2</c:name>
     <c:fmtId val="11"/>
   </c:pivotSource>
   <c:chart>
@@ -3154,7 +2833,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[805d54f9-6d53-4246-bed7-4aa2da615923.xlsx]C̳álculos!Tabela dinâmica4</c:name>
+    <c:name>[Base.xlsx]C̳álculos!Tabela dinâmica4</c:name>
     <c:fmtId val="15"/>
   </c:pivotSource>
   <c:chart>
@@ -5697,8 +5376,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1057275" y="5238749"/>
-          <a:ext cx="1549476" cy="727076"/>
+          <a:off x="1054100" y="5172074"/>
+          <a:ext cx="1552651" cy="711201"/>
           <a:chOff x="3495675" y="5400674"/>
           <a:chExt cx="1549476" cy="752476"/>
         </a:xfrm>
@@ -6009,8 +5688,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2166155" y="2077698"/>
-          <a:ext cx="2847600" cy="1941852"/>
+          <a:off x="2172505" y="2077698"/>
+          <a:ext cx="2844425" cy="1903752"/>
           <a:chOff x="2206889" y="1893548"/>
           <a:chExt cx="6410061" cy="2354602"/>
         </a:xfrm>
@@ -6178,8 +5857,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>52219</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Subscription Type">
@@ -6204,7 +5883,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -6316,8 +5995,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2166629" y="1110320"/>
-          <a:ext cx="2846653" cy="889930"/>
+          <a:off x="2172979" y="1113495"/>
+          <a:ext cx="2840303" cy="886755"/>
           <a:chOff x="2163490" y="919820"/>
           <a:chExt cx="3176860" cy="889930"/>
         </a:xfrm>
@@ -6577,8 +6256,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5059552" y="1110320"/>
-          <a:ext cx="2847719" cy="889930"/>
+          <a:off x="5065902" y="1113495"/>
+          <a:ext cx="2841369" cy="886755"/>
           <a:chOff x="5419890" y="1097620"/>
           <a:chExt cx="3192917" cy="889930"/>
         </a:xfrm>
@@ -6689,6 +6368,7 @@
                 <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               </a:rPr>
+              <a:pPr algn="ctr"/>
               <a:t> R$ 3.880,00 </a:t>
             </a:fld>
             <a:endParaRPr lang="pt-BR" sz="1100">
@@ -7134,7 +6814,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5064351" y="2074523"/>
-          <a:ext cx="2847600" cy="1948202"/>
+          <a:ext cx="2850775" cy="1913277"/>
           <a:chOff x="5420013" y="2064998"/>
           <a:chExt cx="3196937" cy="1948202"/>
         </a:xfrm>
@@ -7413,6 +7093,7 @@
               <a:latin typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
               <a:cs typeface="Segoe UI" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t> R$ 2.122,00 </a:t>
           </a:fld>
           <a:endParaRPr lang="pt-BR" sz="1600">
@@ -12232,107 +11913,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2C75ECE-EFBE-4F85-9050-5A9D0310987A}" name="Tabela dinâmica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
-  <location ref="B65:C68" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-    <pivotField numFmtId="44" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="6" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Contagem de Subscription Type" fld="6" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="97">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="79">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="12" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57DC1966-08E8-4A2D-997F-681514A53A6A}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
   <location ref="B52:C56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
@@ -12388,10 +11968,10 @@
     <dataField name="Soma de Coupon Value" fld="11" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="109">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="110">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -12407,7 +11987,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56D8BC02-2F8D-4CC4-ADDF-F685C7D54B42}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="B41:C45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
@@ -12466,17 +12046,17 @@
     <dataField name="Soma de Total Value" fld="12" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="111">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="112">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -12584,7 +12164,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{548588A3-5148-4019-9D04-ADE5A93F365D}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="B29:C33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
@@ -12643,17 +12223,17 @@
     <dataField name="Soma de Minecraft Season Pass Price" fld="10" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="114">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="115">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="116">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -12669,7 +12249,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D63C694-A053-4F0B-907E-ED1559A9B72B}" name="tbl_annual_total" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="17">
   <location ref="B9:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
@@ -12803,7 +12383,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{291F394E-9045-44B5-98F4-38477E9039D8}" name="tbl_easeason_annual" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="B19:C23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
@@ -12862,20 +12442,121 @@
     <dataField name="Soma de EA Play Season Pass_x000a_Price" fld="8" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="121">
+    <format dxfId="10">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="119">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2C75ECE-EFBE-4F85-9050-5A9D0310987A}" name="Tabela dinâmica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="B65:C68" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField axis="axisPage" dataField="1" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+    <pivotField numFmtId="44" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Contagem de Subscription Type" fld="6" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="12" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -12917,22 +12598,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}" name="Tabela1" displayName="Tabela1" ref="A1:M296" totalsRowShown="0" dataDxfId="26">
   <autoFilter ref="A1:M296" xr:uid="{34E0E886-4200-4B36-97B3-63DB74FF40A0}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="133"/>
-    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="130"/>
-    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="129" dataCellStyle="Moeda"/>
-    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="128"/>
-    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="127"/>
-    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="126" dataCellStyle="Moeda"/>
-    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="125"/>
-    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="124" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="123" dataCellStyle="Moeda"/>
-    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="122" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{C4A90516-688A-46BF-9167-EA16C2A8A652}" name="Subscriber ID" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{53DD39D0-2220-4121-9E9D-4EAA7E151C0F}" name="Name" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{4F5FF271-4C57-4BE0-8F2C-F82C8551625C}" name="Plan" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{8C17EB93-79B9-4E55-B8F7-BEB82F8253E9}" name="Start Date" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{48CEDF9B-1689-482A-A828-5CCE7713264A}" name="Auto Renewal" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{78B82374-9AA7-4E38-AE4F-78CDE6C83720}" name="Subscription Price" dataDxfId="20" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{F2433F68-AF33-49D0-B1FB-19A396074EDE}" name="Subscription Type" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{FD4D9C95-F6E5-4933-9068-A71FF7DF9343}" name="EA Play Season Pass" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{978DD0D2-834E-4CE4-A39B-30976086932F}" name="EA Play Season Pass_x000a_Price" dataDxfId="17" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{6E29F111-C395-4580-9DAD-3407D9E8B1A4}" name="Minecraft Season Pass" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{EF544EAA-7F25-4FD5-A10E-8E62804DB9E3}" name="Minecraft Season Pass Price" dataDxfId="15" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{7F6EB64A-1F07-4E48-9F0F-AC7D9DCD26F8}" name="Coupon Value" dataDxfId="14" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{2B04ABC8-DE6F-426E-ADC0-D8AFC68CA58E}" name="Total Value" dataDxfId="13" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13434,7 +13115,7 @@
   <dimension ref="A1:M296"/>
   <sheetViews>
     <sheetView topLeftCell="D273" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:M296"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25607,7 +25288,7 @@
   <dimension ref="B4:E68"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25969,7 +25650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F14EF-C0B7-459D-9E09-3130BA4314A6}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
@@ -26037,6 +25718,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010001E48B58A68BE64E9120D347E3E06B3A" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="2f90046ec77328b7f86417d2e03b3d33">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="851b35d3-0456-4d6a-bc2f-da927e91d158" xmlns:ns3="19483571-f922-4e8e-9c1c-26f0a2252132" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c815006ac2d4f05ee97fdd57e40d8e38" ns2:_="" ns3:_="">
     <xsd:import namespace="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
@@ -26291,27 +25992,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="851b35d3-0456-4d6a-bc2f-da927e91d158">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="19483571-f922-4e8e-9c1c-26f0a2252132" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32608D25-EC36-42FE-A1DC-F778995A6799}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26328,23 +26028,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3B4D9D5-B351-46EB-A728-C3362FE437D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFD3D529-BCD3-4ECD-9B2A-42924892FFCB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
-    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>